--- a/output/zamienie/sheets/zamienie_long_term_monthly_average_noise_levels.xlsx
+++ b/output/zamienie/sheets/zamienie_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.40645161290323</v>
+        <v>45.96385867259154</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21290322580645</v>
+        <v>41.84074342426718</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.41785714285714</v>
+        <v>42.89374330063505</v>
       </c>
       <c r="C3" t="n">
-        <v>30.91071428571428</v>
+        <v>40.3947098810803</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.87096774193548</v>
+        <v>44.65415329850825</v>
       </c>
       <c r="C4" t="n">
-        <v>31.6258064516129</v>
+        <v>40.985237748049</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.02</v>
+        <v>45.83510892524504</v>
       </c>
       <c r="C5" t="n">
-        <v>26.70666666666667</v>
+        <v>39.52290852398423</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.2516129032258</v>
+        <v>47.39189351973798</v>
       </c>
       <c r="C6" t="n">
-        <v>32.30322580645161</v>
+        <v>41.73700827998782</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.62</v>
+        <v>47.68788704292576</v>
       </c>
       <c r="C7" t="n">
-        <v>21.54666666666667</v>
+        <v>38.9951477560902</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.5</v>
+        <v>47.85876095167492</v>
       </c>
       <c r="C8" t="n">
-        <v>21.56451612903226</v>
+        <v>37.18258330960998</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36.80645161290322</v>
+        <v>42.56464012121556</v>
       </c>
       <c r="C9" t="n">
-        <v>23.23225806451613</v>
+        <v>39.5455999886425</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.14666666666667</v>
+        <v>43.05509659953562</v>
       </c>
       <c r="C10" t="n">
-        <v>22.96</v>
+        <v>38.46106863875711</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40.23870967741936</v>
+        <v>45.99130616815959</v>
       </c>
       <c r="C11" t="n">
-        <v>29.37741935483871</v>
+        <v>40.81647245763908</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>39.3</v>
+        <v>45.24667339364144</v>
       </c>
       <c r="C12" t="n">
-        <v>28.92333333333334</v>
+        <v>41.84524967840034</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.98709677419355</v>
+        <v>42.73725285900771</v>
       </c>
       <c r="C13" t="n">
-        <v>28.33225806451613</v>
+        <v>42.60434086068365</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.68387096774194</v>
+        <v>42.03721777972406</v>
       </c>
       <c r="C14" t="n">
-        <v>27.07741935483871</v>
+        <v>40.04147880386927</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>28.875</v>
+        <v>43.6003644117844</v>
       </c>
       <c r="C15" t="n">
-        <v>18.33571428571429</v>
+        <v>38.25733634538052</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.51935483870968</v>
+        <v>41.767114917284</v>
       </c>
       <c r="C16" t="n">
-        <v>21.55483870967742</v>
+        <v>42.13696829729344</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.08333333333333</v>
+        <v>44.407874467759</v>
       </c>
       <c r="C17" t="n">
-        <v>21.52666666666666</v>
+        <v>40.61480598548441</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>33.21612903225807</v>
+        <v>42.49568471967665</v>
       </c>
       <c r="C18" t="n">
-        <v>23.38064516129032</v>
+        <v>41.58991399355513</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.16666666666667</v>
+        <v>38.68464917111935</v>
       </c>
       <c r="C19" t="n">
-        <v>25.74666666666667</v>
+        <v>37.90851235784378</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.05483870967742</v>
+        <v>40.93379884426236</v>
       </c>
       <c r="C20" t="n">
-        <v>24.65806451612903</v>
+        <v>36.64263934092819</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23.32258064516129</v>
+        <v>37.57565806514177</v>
       </c>
       <c r="C21" t="n">
-        <v>28.12258064516129</v>
+        <v>36.85844107136644</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.44</v>
+        <v>42.80704205894803</v>
       </c>
       <c r="C22" t="n">
-        <v>24.52666666666666</v>
+        <v>39.76311278462107</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.45806451612903</v>
+        <v>37.14499283259543</v>
       </c>
       <c r="C23" t="n">
-        <v>23.21290322580645</v>
+        <v>37.07073955680509</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>36.87666666666667</v>
+        <v>42.11138763178074</v>
       </c>
       <c r="C24" t="n">
-        <v>35.47</v>
+        <v>41.79387359108711</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.02903225806451</v>
+        <v>40.43778604356581</v>
       </c>
       <c r="C25" t="n">
-        <v>24.40322580645161</v>
+        <v>40.68015361269639</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25.10967741935484</v>
+        <v>38.72802290962264</v>
       </c>
       <c r="C26" t="n">
-        <v>19.7516129032258</v>
+        <v>37.82031467453576</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18.41724137931035</v>
+        <v>38.37905718801527</v>
       </c>
       <c r="C27" t="n">
-        <v>15.27931034482759</v>
+        <v>37.21721310368516</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.23225806451613</v>
+        <v>41.05488287226257</v>
       </c>
       <c r="C28" t="n">
-        <v>10.16451612903226</v>
+        <v>36.25070695544533</v>
       </c>
     </row>
     <row r="29">
@@ -838,634 +838,608 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.773333333333333</v>
+        <v>48.3</v>
       </c>
       <c r="C29" t="n">
-        <v>3.89</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.816129032258065</v>
+        <v>37.57362061855765</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8032258064516129</v>
+        <v>35.33788730291392</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.629999999999999</v>
+        <v>35.64326954666828</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9933333333333334</v>
+        <v>35.36986454899081</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>12.16774193548387</v>
+        <v>37.9231203439938</v>
       </c>
       <c r="C32" t="n">
-        <v>7.758064516129032</v>
+        <v>31.87632559835924</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17.01612903225806</v>
+        <v>36.05609825470846</v>
       </c>
       <c r="C33" t="n">
-        <v>8.287096774193548</v>
+        <v>34.4597437606334</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.20666666666667</v>
+        <v>33.35881636374494</v>
       </c>
       <c r="C34" t="n">
-        <v>5.266666666666667</v>
+        <v>36.22844000127495</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.13225806451613</v>
+        <v>34.98665747318617</v>
       </c>
       <c r="C35" t="n">
-        <v>11.86451612903226</v>
+        <v>37.62004016694156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8.793333333333333</v>
+        <v>33.78468677666507</v>
       </c>
       <c r="C36" t="n">
-        <v>9.873333333333333</v>
+        <v>33.86782483974396</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.01290322580645</v>
+        <v>33.73818540315263</v>
       </c>
       <c r="C37" t="n">
-        <v>20.81290322580645</v>
+        <v>36.24510467445312</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>13.61935483870968</v>
+        <v>31.35472443693179</v>
       </c>
       <c r="C38" t="n">
-        <v>7.62258064516129</v>
+        <v>30.77286465227725</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11.31071428571429</v>
+        <v>33.9134003186383</v>
       </c>
       <c r="C39" t="n">
-        <v>6.164285714285714</v>
+        <v>30.35131759580826</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11.2</v>
+        <v>46.30507930429334</v>
       </c>
       <c r="C40" t="n">
-        <v>4.851612903225806</v>
+        <v>34.73416834594219</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.286666666666667</v>
+        <v>34.38796379101616</v>
       </c>
       <c r="C41" t="n">
-        <v>3.9</v>
+        <v>36.16640247630886</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.81935483870968</v>
+        <v>35.0329115488358</v>
       </c>
       <c r="C42" t="n">
-        <v>13.81935483870968</v>
+        <v>32.83985174925002</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.75333333333333</v>
+        <v>39.14466346352355</v>
       </c>
       <c r="C43" t="n">
-        <v>7.69</v>
+        <v>36.95964413418234</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.44838709677419</v>
+        <v>34.40815992775623</v>
       </c>
       <c r="C44" t="n">
-        <v>12.33225806451613</v>
+        <v>35.79053065488259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>25.18064516129032</v>
+        <v>34.64082833274033</v>
       </c>
       <c r="C45" t="n">
-        <v>16.2258064516129</v>
+        <v>37.16264715282171</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17.08</v>
+        <v>34.41704615314006</v>
       </c>
       <c r="C46" t="n">
-        <v>17.25666666666667</v>
+        <v>38.73025606469506</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>27.08387096774194</v>
+        <v>35.78929588294232</v>
       </c>
       <c r="C47" t="n">
-        <v>25.74516129032258</v>
+        <v>39.05744766238217</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>19.33666666666667</v>
+        <v>37.97446861153242</v>
       </c>
       <c r="C48" t="n">
-        <v>20.29666666666667</v>
+        <v>35.2134665062388</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>21.24193548387097</v>
+        <v>37.43721437486553</v>
       </c>
       <c r="C49" t="n">
-        <v>17.0258064516129</v>
+        <v>39.69451588588796</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>19.40645161290323</v>
+        <v>32.46826830739794</v>
       </c>
       <c r="C50" t="n">
-        <v>16.6</v>
+        <v>39.25999426064521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>23.675</v>
+        <v>36.78056172354808</v>
       </c>
       <c r="C51" t="n">
-        <v>20.48214285714286</v>
+        <v>37.54745997189846</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>8.961290322580645</v>
+        <v>34.82080466579244</v>
       </c>
       <c r="C52" t="n">
-        <v>13.77096774193548</v>
+        <v>37.20688973417915</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.50666666666667</v>
+        <v>34.84843758497853</v>
       </c>
       <c r="C53" t="n">
-        <v>13.18666666666667</v>
+        <v>38.73243078913364</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>18.74516129032258</v>
+        <v>38.07889083351886</v>
       </c>
       <c r="C54" t="n">
-        <v>14.74838709677419</v>
+        <v>38.53675023602123</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>24.76333333333333</v>
+        <v>35.83039740817312</v>
       </c>
       <c r="C55" t="n">
-        <v>18.05333333333333</v>
+        <v>37.26933404279507</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>16.16129032258064</v>
+        <v>33.61515180675381</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7</v>
+        <v>38.25467260214483</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20.13870967741935</v>
+        <v>35.80245833986893</v>
       </c>
       <c r="C57" t="n">
-        <v>19.47096774193549</v>
+        <v>39.82965174922757</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>13.00666666666667</v>
+        <v>34.46768896064482</v>
       </c>
       <c r="C58" t="n">
-        <v>15.03666666666667</v>
+        <v>41.81634857912275</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>19.03225806451613</v>
+        <v>36.89688534767707</v>
       </c>
       <c r="C59" t="n">
-        <v>12.28709677419355</v>
+        <v>42.35783772674254</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>19.85333333333334</v>
+        <v>35.51648568899816</v>
       </c>
       <c r="C60" t="n">
-        <v>25.42</v>
+        <v>42.41912193914348</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>19.56774193548387</v>
+        <v>37.66750077844529</v>
       </c>
       <c r="C61" t="n">
-        <v>15.41290322580645</v>
+        <v>41.61988791933908</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>13.07741935483871</v>
+        <v>36.64423289819113</v>
       </c>
       <c r="C62" t="n">
-        <v>9.425806451612903</v>
+        <v>40.31752117413598</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>8.621428571428572</v>
+        <v>39.47127637734123</v>
       </c>
       <c r="C63" t="n">
-        <v>11.33571428571429</v>
+        <v>40.71370379103076</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>20.42903225806451</v>
+        <v>40.49138808978778</v>
       </c>
       <c r="C64" t="n">
-        <v>16.95161290322581</v>
+        <v>42.20476528854313</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>22.07</v>
+        <v>40.48296029606202</v>
       </c>
       <c r="C65" t="n">
-        <v>23.09666666666667</v>
+        <v>41.53730930208769</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>26.61290322580645</v>
+        <v>29.57979753988585</v>
       </c>
       <c r="C66" t="n">
-        <v>24.19354838709678</v>
+        <v>36.06371854955989</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20.93666666666667</v>
+        <v>37.12421368417945</v>
       </c>
       <c r="C67" t="n">
-        <v>25.66</v>
+        <v>40.8312177189871</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6.519354838709678</v>
+        <v>38.1728061783724</v>
       </c>
       <c r="C68" t="n">
-        <v>9.625806451612902</v>
+        <v>41.24427665783838</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>18.2258064516129</v>
+        <v>39.83596557185732</v>
       </c>
       <c r="C69" t="n">
-        <v>21.43225806451613</v>
+        <v>40.82050971624668</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>19.09666666666667</v>
+        <v>41.89119763299289</v>
       </c>
       <c r="C70" t="n">
-        <v>23.74666666666667</v>
+        <v>42.69135618924655</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>14.41935483870968</v>
+        <v>39.30629863276361</v>
       </c>
       <c r="C71" t="n">
-        <v>8.929032258064517</v>
+        <v>39.29034052409169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>21.53333333333333</v>
+        <v>39.80869815379654</v>
       </c>
       <c r="C72" t="n">
-        <v>21.47666666666667</v>
+        <v>40.75488610893583</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15.07741935483871</v>
+        <v>39.57460102007664</v>
       </c>
       <c r="C73" t="n">
-        <v>14.80967741935484</v>
+        <v>41.49704764481978</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.5741935483871</v>
+        <v>41.8517927316238</v>
       </c>
       <c r="C74" t="n">
-        <v>19.10967741935484</v>
+        <v>42.58262685819894</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>25.89310344827586</v>
+        <v>39.62159695533265</v>
       </c>
       <c r="C75" t="n">
-        <v>25.04137931034483</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2024-03</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>33.10322580645161</v>
-      </c>
-      <c r="C76" t="n">
-        <v>32.46774193548387</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="C77" t="n">
-        <v>20.54</v>
+        <v>42.76982989089618</v>
       </c>
     </row>
   </sheetData>
